--- a/mydemoapp-qa.xlsx
+++ b/mydemoapp-qa.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C570AD8-1266-4CD4-94B8-E5030122518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92A963-52DB-487A-91FF-F4097BD15362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Details" sheetId="3" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$2:$X$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$A$2:$X$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t>Test Cases</t>
   </si>
@@ -53,15 +54,9 @@
     <t>Actual Output</t>
   </si>
   <si>
-    <t>Cycle 1</t>
-  </si>
-  <si>
     <t>Expected Output</t>
   </si>
   <si>
-    <t>Description of actual defect</t>
-  </si>
-  <si>
     <t>Mobile app Test Cases</t>
   </si>
   <si>
@@ -161,9 +156,6 @@
     <t>Enter URL in box</t>
   </si>
   <si>
-    <t>Click "Go To Site"</t>
-  </si>
-  <si>
     <t>Scan QR Code</t>
   </si>
   <si>
@@ -197,9 +189,6 @@
     <t>Switch OFF</t>
   </si>
   <si>
-    <t>Click "Cancel" on Reset</t>
-  </si>
-  <si>
     <t>The application maintains full functionality and data sync across both 5G and Wi-Fi connections.</t>
   </si>
   <si>
@@ -224,12 +213,6 @@
     <t>Fingerprint authentication is disabled; biometric login is bypassed or unavailable.</t>
   </si>
   <si>
-    <t>The app initiates navigation and renders the target webpage within the webview container.</t>
-  </si>
-  <si>
-    <t>The scanner decodes the QR code and automatically redirects the user to the embedded URL or destination.</t>
-  </si>
-  <si>
     <t>The canvas is cleared of all drawings and returns to its default blank state.</t>
   </si>
   <si>
@@ -240,12 +223,6 @@
   </si>
   <si>
     <t>The user is redirected to the external Sauce Labs website (www.saucelabs.com) in a browser.</t>
-  </si>
-  <si>
-    <t>Cancels popup message on reset app state</t>
-  </si>
-  <si>
-    <t>1. Valid credentials</t>
   </si>
   <si>
     <t>1. User is logged in</t>
@@ -271,9 +248,6 @@
   </si>
   <si>
     <t>1. Canvas with drawing</t>
-  </si>
-  <si>
-    <t>1. Current with drawing</t>
   </si>
   <si>
     <t>1. Selected item</t>
@@ -302,7 +276,208 @@
     <t>1. Blank canvas</t>
   </si>
   <si>
-    <t>1. Items added on the shopping cart</t>
+    <t>1. Valid credentials
+2. User is logged out</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to hamburger icon
+3. Enter credentials
+4. Click log in</t>
+  </si>
+  <si>
+    <t>Username:  bod@example.com
+visual@example.com
+Password: 10203040</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to hamburger icon
+3. Click log out</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to catalog
+3. Select an item
+4. Select color</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to catalog
+3. Select an item
+4. Add to cart</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Click Sort by
+3. Select Name - Ascending</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Click Sort by
+3. Select Name - Descending</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Click Sort by
+3. Select Price - Ascending</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Click Sort by
+3. Select Price - Descending</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to catalog
+3. Select an item
+4. Select amount of yellow star for  1 to 5 product rating</t>
+  </si>
+  <si>
+    <t>Application name</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Github app source</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>End of testing</t>
+  </si>
+  <si>
+    <t>Start of testing</t>
+  </si>
+  <si>
+    <t>MyDemoApp</t>
+  </si>
+  <si>
+    <t>https://github.com/saucelabs/my-demo-app-android</t>
+  </si>
+  <si>
+    <t>Sauce Labs</t>
+  </si>
+  <si>
+    <t>Rea Oplegeda</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to catalog
+3. Select an item
+4. Increase quantity by clicking + sign</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to catalog
+3. Select an item
+4. Decrease quantity by clicking - sign</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to hamburger icon
+3. Go to Webview
+4. Enter www.google.com in the URL box
+5. Click Go To Site</t>
+  </si>
+  <si>
+    <t>The scanner decodes the QR code and automatically redirects the user to the embedded URL or destination on the Sauce Labs website.</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate to hamburger icon
+3. Go to QR Code Scanner
+4. Scan Sauce Labs website QR Code</t>
+  </si>
+  <si>
+    <t>1. Open app 
+2. Navigate to hamburger icon
+3. Go to Drawing
+4. Drag finger across canvas</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Sample name</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Open the Drawing module
+4. Draw an image on the canvas
+5. Click the "Save" button
+6. Check the device's local gallery/storage</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Go to About
+4. Observe the version text displayed</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Open the Drawing module
+4. Draw an image on the canvas
+5. Click the "Clear" button</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Go to About
+4. Locate and click on the "Sauce Labs" link/URL</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Open Reset App State
+4. Click on the "Reset App" button</t>
+  </si>
+  <si>
+    <t>1. Reset app</t>
+  </si>
+  <si>
+    <t>1. Trigger the Reset App State modal
+2. Click the "RESET APP"
+3. Click the "OK" button.</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Go to the FingerPrint
+4. Toggle the Fingerprint switch to the "ON" position.</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Navigate hamburger icon
+3. Go to the FingerPrint
+4. Toggle the Fingerprint switch to the "OFF" position.</t>
+  </si>
+  <si>
+    <t>1. Open the app while on Wi-Fi and perform an action
+2. Disable Wi-Fi and enable 5G mobile dataa
+3. Perfom th same action again</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not tested</t>
+  </si>
+  <si>
+    <t>1. Current canvas with drawing</t>
   </si>
 </sst>
 </file>
@@ -354,18 +529,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -388,6 +557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,25 +648,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,35 +676,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -562,6 +760,138 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,6 +981,66 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>336180</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC146DB9-D3E5-498E-A9B5-941F3BAAC224}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13894920" y="526680"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD7313-A150-865C-8E29-04933683FEB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13888800" y="520560"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -679,6 +1069,50 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
 </inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-17T07:53:03.369"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF54F7-FC09-486A-BC1E-AF79CB9CEFBD}" name="Table2" displayName="Table2" ref="A3:I12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{034CF047-174B-47F3-AE5A-5C9B04F00F6F}" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{1129CF95-2EEB-4F05-BD90-E81E8B85B877}" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6BAF1456-31E9-43C5-B59E-91ADE1A4F9B6}" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DD5FE61C-236C-4362-A07D-BE1EA099971D}" name="Column4" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B5197FE7-8E75-44EA-827D-ED0F14AD44DF}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F0A78EB8-75C8-4398-93E2-76CB22C42DD6}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{9E4ACC3A-6C1B-498C-9067-7C4B861EE2B3}" name="Column7" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{C6A12C5E-2D71-43D9-8AD4-9CCA861B7076}" name="Column8" headerRowDxfId="6" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{3A67EACA-BE3A-4ED9-A0A5-1ADFFD82805E}" name="Column9" headerRowDxfId="4" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,13 +1401,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E58C407-58E8-4A16-9463-B92B5E7E7739}">
+  <dimension ref="A3:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="D11:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="11" customWidth="1"/>
+    <col min="10" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23">
+        <v>46037</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="23">
+        <v>46038</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T661"/>
+  <dimension ref="A1:S659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D42" sqref="D42"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1605,7 @@
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="3" customWidth="1"/>
     <col min="4" max="5" width="30.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="3" customWidth="1"/>
     <col min="9" max="11" width="23.140625" style="3" customWidth="1"/>
@@ -991,48 +1614,46 @@
     <col min="14" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1044,3208 +1665,3191 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <f t="shared" ref="A6:A78" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <f t="shared" ref="A6:A80" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="D34" s="2"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
       <c r="D61" s="2"/>
       <c r="E61"/>
       <c r="F61"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <f t="shared" si="0"/>
-        <v>59</v>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <f>A60+1</f>
+        <v>58</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <f>A62+1</f>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65"/>
       <c r="F65"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <f t="shared" ref="A79:A80" si="1">A78+1</f>
         <v>75</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="12">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
-        <f t="shared" ref="A81:A82" si="1">A80+1</f>
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="12">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="15"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="15"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="15"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="15"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="15"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="15"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="13"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="13"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="13"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="15"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="13"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="15"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="15"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="15"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="15"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="15"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="15"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="15"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="15"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="15"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="15"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="15"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="15"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
-      <c r="B137" s="15"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
-      <c r="B138" s="15"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="15"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="15"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="15"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="15"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="15"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
-      <c r="B148" s="15"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
-      <c r="B149" s="15"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="15"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="15"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="15"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="15"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="15"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="15"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
-      <c r="B156" s="15"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
-      <c r="B157" s="15"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
-      <c r="B158" s="15"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
-      <c r="B159" s="15"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="15"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="15"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
-      <c r="B162" s="15"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="15"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="15"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="15"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="15"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
-      <c r="B167" s="15"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="15"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="15"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="15"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="15"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="15"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="15"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="15"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="15"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="15"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="15"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="15"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="15"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="15"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="15"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="15"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="15"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="15"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="15"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="15"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="15"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="15"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="15"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="15"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="15"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="15"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="15"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="15"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="15"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="15"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="15"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="15"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="15"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="15"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="15"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="13"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="15"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="13"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="15"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="13"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="15"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="13"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="15"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="13"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="15"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="B209" s="15"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="15"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="15"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
-      <c r="B212" s="15"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="15"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
-      <c r="B214" s="15"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="13"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
-      <c r="B215" s="15"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="13"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="15"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="13"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
-      <c r="B217" s="15"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="13"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="15"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="13"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="13"/>
-      <c r="B219" s="15"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="13"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
-      <c r="B220" s="15"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="13"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
-      <c r="B221" s="15"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="13"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="15"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="13"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="15"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="13"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
-      <c r="B224" s="15"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="13"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="15"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="13"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="15"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="13"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
-      <c r="B227" s="15"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="13"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
-      <c r="B228" s="15"/>
+      <c r="A228" s="11"/>
+      <c r="B228" s="13"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
-      <c r="B229" s="15"/>
+      <c r="A229" s="11"/>
+      <c r="B229" s="13"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
-      <c r="B230" s="15"/>
+      <c r="A230" s="11"/>
+      <c r="B230" s="13"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
-      <c r="B231" s="15"/>
+      <c r="A231" s="11"/>
+      <c r="B231" s="13"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="15"/>
+      <c r="A232" s="11"/>
+      <c r="B232" s="13"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
-      <c r="B233" s="15"/>
+      <c r="A233" s="11"/>
+      <c r="B233" s="13"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
-      <c r="B234" s="15"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="13"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
-      <c r="B235" s="15"/>
+      <c r="A235" s="11"/>
+      <c r="B235" s="13"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
-      <c r="B236" s="15"/>
+      <c r="A236" s="11"/>
+      <c r="B236" s="13"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="13"/>
-      <c r="B237" s="15"/>
+      <c r="A237" s="11"/>
+      <c r="B237" s="13"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
-      <c r="B238" s="15"/>
+      <c r="A238" s="11"/>
+      <c r="B238" s="13"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="13"/>
-      <c r="B239" s="15"/>
+      <c r="A239" s="11"/>
+      <c r="B239" s="13"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="B240" s="15"/>
+      <c r="A240" s="11"/>
+      <c r="B240" s="13"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="13"/>
-      <c r="B241" s="15"/>
+      <c r="A241" s="11"/>
+      <c r="B241" s="13"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="13"/>
-      <c r="B242" s="15"/>
+      <c r="A242" s="11"/>
+      <c r="B242" s="13"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="15"/>
+      <c r="A243" s="11"/>
+      <c r="B243" s="13"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
-      <c r="B244" s="15"/>
+      <c r="A244" s="11"/>
+      <c r="B244" s="13"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
-      <c r="B245" s="15"/>
+      <c r="A245" s="11"/>
+      <c r="B245" s="13"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="B246" s="15"/>
+      <c r="A246" s="11"/>
+      <c r="B246" s="13"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
-      <c r="B247" s="15"/>
+      <c r="A247" s="11"/>
+      <c r="B247" s="13"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
-      <c r="B248" s="15"/>
+      <c r="A248" s="11"/>
+      <c r="B248" s="13"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
-      <c r="B249" s="15"/>
+      <c r="A249" s="11"/>
+      <c r="B249" s="13"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="13"/>
-      <c r="B250" s="15"/>
+      <c r="A250" s="11"/>
+      <c r="B250" s="13"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
-      <c r="B251" s="15"/>
+      <c r="A251" s="11"/>
+      <c r="B251" s="13"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
-      <c r="B252" s="15"/>
+      <c r="A252" s="11"/>
+      <c r="B252" s="13"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="13"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="11"/>
+      <c r="B253" s="13"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
-      <c r="B254" s="15"/>
+      <c r="A254" s="11"/>
+      <c r="B254" s="13"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="13"/>
-      <c r="B255" s="15"/>
+      <c r="A255" s="11"/>
+      <c r="B255" s="13"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="13"/>
-      <c r="B256" s="15"/>
+      <c r="A256" s="11"/>
+      <c r="B256" s="13"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="15"/>
+      <c r="A257" s="11"/>
+      <c r="B257" s="13"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
-      <c r="B258" s="15"/>
+      <c r="A258" s="11"/>
+      <c r="B258" s="13"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
-      <c r="B259" s="15"/>
+      <c r="A259" s="11"/>
+      <c r="B259" s="13"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="13"/>
-      <c r="B260" s="15"/>
+      <c r="A260" s="11"/>
+      <c r="B260" s="13"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
-      <c r="B261" s="15"/>
+      <c r="A261" s="11"/>
+      <c r="B261" s="13"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
-      <c r="B262" s="15"/>
+      <c r="A262" s="11"/>
+      <c r="B262" s="13"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
-      <c r="B263" s="15"/>
+      <c r="A263" s="11"/>
+      <c r="B263" s="13"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
-      <c r="B264" s="15"/>
+      <c r="A264" s="11"/>
+      <c r="B264" s="13"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="15"/>
+      <c r="A265" s="11"/>
+      <c r="B265" s="13"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="13"/>
-      <c r="B266" s="15"/>
+      <c r="A266" s="11"/>
+      <c r="B266" s="13"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="11"/>
+      <c r="B267" s="13"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
-      <c r="B268" s="15"/>
+      <c r="A268" s="11"/>
+      <c r="B268" s="13"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
-      <c r="B269" s="15"/>
+      <c r="A269" s="11"/>
+      <c r="B269" s="13"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
-      <c r="B270" s="15"/>
+      <c r="A270" s="11"/>
+      <c r="B270" s="13"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
-      <c r="B271" s="15"/>
+      <c r="A271" s="11"/>
+      <c r="B271" s="13"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
-      <c r="B272" s="15"/>
+      <c r="A272" s="11"/>
+      <c r="B272" s="13"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="15"/>
+      <c r="A273" s="11"/>
+      <c r="B273" s="13"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
-      <c r="B274" s="15"/>
+      <c r="A274" s="11"/>
+      <c r="B274" s="13"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="13"/>
-      <c r="B275" s="15"/>
+      <c r="A275" s="11"/>
+      <c r="B275" s="13"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="13"/>
-      <c r="B276" s="15"/>
+      <c r="A276" s="11"/>
+      <c r="B276" s="13"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
-      <c r="B277" s="15"/>
+      <c r="A277" s="11"/>
+      <c r="B277" s="13"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
-      <c r="B278" s="15"/>
+      <c r="A278" s="11"/>
+      <c r="B278" s="13"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
-      <c r="B279" s="15"/>
+      <c r="A279" s="11"/>
+      <c r="B279" s="13"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
-      <c r="B280" s="15"/>
+      <c r="A280" s="11"/>
+      <c r="B280" s="13"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="15"/>
+      <c r="A281" s="11"/>
+      <c r="B281" s="13"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
-      <c r="B282" s="15"/>
+      <c r="A282" s="11"/>
+      <c r="B282" s="13"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
-      <c r="B283" s="15"/>
+      <c r="A283" s="11"/>
+      <c r="B283" s="13"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="13"/>
-      <c r="B284" s="15"/>
+      <c r="A284" s="11"/>
+      <c r="B284" s="13"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="13"/>
-      <c r="B285" s="15"/>
+      <c r="A285" s="11"/>
+      <c r="B285" s="13"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="13"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="11"/>
+      <c r="B286" s="13"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="13"/>
-      <c r="B287" s="15"/>
+      <c r="A287" s="11"/>
+      <c r="B287" s="13"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="13"/>
-      <c r="B288" s="15"/>
+      <c r="A288" s="11"/>
+      <c r="B288" s="13"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="13"/>
-      <c r="B289" s="15"/>
+      <c r="A289" s="11"/>
+      <c r="B289" s="13"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="13"/>
-      <c r="B290" s="15"/>
+      <c r="A290" s="11"/>
+      <c r="B290" s="13"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="13"/>
-      <c r="B291" s="15"/>
+      <c r="A291" s="11"/>
+      <c r="B291" s="13"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
-      <c r="B292" s="15"/>
+      <c r="A292" s="11"/>
+      <c r="B292" s="13"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
-      <c r="B293" s="15"/>
+      <c r="A293" s="11"/>
+      <c r="B293" s="13"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
-      <c r="B294" s="15"/>
+      <c r="A294" s="11"/>
+      <c r="B294" s="13"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="15"/>
+      <c r="A295" s="11"/>
+      <c r="B295" s="13"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
-      <c r="B296" s="15"/>
+      <c r="A296" s="11"/>
+      <c r="B296" s="13"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
-      <c r="B297" s="15"/>
+      <c r="A297" s="11"/>
+      <c r="B297" s="13"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
-      <c r="B298" s="15"/>
+      <c r="A298" s="11"/>
+      <c r="B298" s="13"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="13"/>
-      <c r="B299" s="15"/>
+      <c r="A299" s="11"/>
+      <c r="B299" s="13"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="13"/>
-      <c r="B300" s="15"/>
+      <c r="A300" s="11"/>
+      <c r="B300" s="13"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="13"/>
-      <c r="B301" s="15"/>
+      <c r="A301" s="11"/>
+      <c r="B301" s="13"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="13"/>
-      <c r="B302" s="15"/>
+      <c r="A302" s="11"/>
+      <c r="B302" s="13"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="13"/>
-      <c r="B303" s="15"/>
+      <c r="A303" s="11"/>
+      <c r="B303" s="13"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
-      <c r="B304" s="15"/>
+      <c r="A304" s="11"/>
+      <c r="B304" s="13"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="13"/>
-      <c r="B305" s="15"/>
+      <c r="A305" s="11"/>
+      <c r="B305" s="13"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="13"/>
-      <c r="B306" s="15"/>
+      <c r="A306" s="11"/>
+      <c r="B306" s="13"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="13"/>
-      <c r="B307" s="15"/>
+      <c r="A307" s="11"/>
+      <c r="B307" s="13"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
-      <c r="B308" s="15"/>
+      <c r="A308" s="11"/>
+      <c r="B308" s="13"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="13"/>
-      <c r="B309" s="15"/>
+      <c r="A309" s="11"/>
+      <c r="B309" s="13"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
-      <c r="B310" s="15"/>
+      <c r="A310" s="11"/>
+      <c r="B310" s="13"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="13"/>
-      <c r="B311" s="15"/>
+      <c r="A311" s="11"/>
+      <c r="B311" s="13"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="13"/>
-      <c r="B312" s="15"/>
+      <c r="A312" s="11"/>
+      <c r="B312" s="13"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="13"/>
-      <c r="B313" s="15"/>
+      <c r="A313" s="11"/>
+      <c r="B313" s="13"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="13"/>
-      <c r="B314" s="15"/>
+      <c r="A314" s="11"/>
+      <c r="B314" s="13"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="13"/>
-      <c r="B315" s="15"/>
+      <c r="A315" s="11"/>
+      <c r="B315" s="13"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="13"/>
-      <c r="B316" s="15"/>
+      <c r="A316" s="11"/>
+      <c r="B316" s="13"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="13"/>
-      <c r="B317" s="15"/>
+      <c r="A317" s="11"/>
+      <c r="B317" s="13"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="13"/>
-      <c r="B318" s="15"/>
+      <c r="A318" s="11"/>
+      <c r="B318" s="13"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="13"/>
-      <c r="B319" s="15"/>
+      <c r="A319" s="11"/>
+      <c r="B319" s="13"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
-      <c r="B320" s="15"/>
+      <c r="A320" s="11"/>
+      <c r="B320" s="13"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="13"/>
-      <c r="B321" s="15"/>
+      <c r="A321" s="11"/>
+      <c r="B321" s="13"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
-      <c r="B322" s="15"/>
+      <c r="A322" s="11"/>
+      <c r="B322" s="13"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="13"/>
-      <c r="B323" s="15"/>
+      <c r="A323" s="11"/>
+      <c r="B323" s="13"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="13"/>
-      <c r="B324" s="15"/>
+      <c r="A324" s="11"/>
+      <c r="B324" s="13"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="13"/>
-      <c r="B325" s="15"/>
+      <c r="A325" s="11"/>
+      <c r="B325" s="13"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="13"/>
-      <c r="B326" s="15"/>
+      <c r="A326" s="11"/>
+      <c r="B326" s="13"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="13"/>
-      <c r="B327" s="15"/>
+      <c r="A327" s="11"/>
+      <c r="B327" s="13"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
-      <c r="B328" s="15"/>
+      <c r="A328" s="11"/>
+      <c r="B328" s="13"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="13"/>
-      <c r="B329" s="15"/>
+      <c r="A329" s="11"/>
+      <c r="B329" s="13"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="13"/>
-      <c r="B330" s="15"/>
+      <c r="A330" s="11"/>
+      <c r="B330" s="13"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="13"/>
-      <c r="B331" s="15"/>
+      <c r="A331" s="11"/>
+      <c r="B331" s="13"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
-      <c r="B332" s="15"/>
+      <c r="A332" s="11"/>
+      <c r="B332" s="13"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
-      <c r="B333" s="15"/>
+      <c r="A333" s="11"/>
+      <c r="B333" s="13"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
-      <c r="B334" s="15"/>
+      <c r="A334" s="11"/>
+      <c r="B334" s="13"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="13"/>
-      <c r="B335" s="15"/>
+      <c r="A335" s="11"/>
+      <c r="B335" s="13"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="13"/>
-      <c r="B336" s="15"/>
+      <c r="A336" s="11"/>
+      <c r="B336" s="13"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="13"/>
-      <c r="B337" s="15"/>
+      <c r="A337" s="11"/>
+      <c r="B337" s="13"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="13"/>
-      <c r="B338" s="15"/>
+      <c r="A338" s="11"/>
+      <c r="B338" s="13"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="13"/>
-      <c r="B339" s="15"/>
+      <c r="A339" s="11"/>
+      <c r="B339" s="13"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="13"/>
-      <c r="B340" s="15"/>
+      <c r="A340" s="11"/>
+      <c r="B340" s="13"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="13"/>
-      <c r="B341" s="15"/>
+      <c r="A341" s="11"/>
+      <c r="B341" s="13"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="13"/>
-      <c r="B342" s="15"/>
+      <c r="A342" s="11"/>
+      <c r="B342" s="13"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="13"/>
-      <c r="B343" s="15"/>
+      <c r="A343" s="11"/>
+      <c r="B343" s="13"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="13"/>
-      <c r="B344" s="15"/>
+      <c r="A344" s="11"/>
+      <c r="B344" s="13"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="13"/>
-      <c r="B345" s="15"/>
+      <c r="A345" s="11"/>
+      <c r="B345" s="13"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="13"/>
-      <c r="B346" s="15"/>
+      <c r="A346" s="11"/>
+      <c r="B346" s="13"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="13"/>
-      <c r="B347" s="15"/>
+      <c r="A347" s="11"/>
+      <c r="B347" s="13"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="13"/>
-      <c r="B348" s="15"/>
+      <c r="A348" s="11"/>
+      <c r="B348" s="13"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="13"/>
-      <c r="B349" s="15"/>
+      <c r="A349" s="11"/>
+      <c r="B349" s="13"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="13"/>
-      <c r="B350" s="15"/>
+      <c r="A350" s="11"/>
+      <c r="B350" s="13"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="13"/>
-      <c r="B351" s="15"/>
+      <c r="A351" s="11"/>
+      <c r="B351" s="13"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="13"/>
-      <c r="B352" s="15"/>
+      <c r="A352" s="11"/>
+      <c r="B352" s="13"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="13"/>
-      <c r="B353" s="15"/>
+      <c r="A353" s="11"/>
+      <c r="B353" s="13"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="13"/>
-      <c r="B354" s="15"/>
+      <c r="A354" s="11"/>
+      <c r="B354" s="13"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="13"/>
-      <c r="B355" s="15"/>
+      <c r="A355" s="11"/>
+      <c r="B355" s="13"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="13"/>
-      <c r="B356" s="15"/>
+      <c r="A356" s="11"/>
+      <c r="B356" s="13"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="13"/>
-      <c r="B357" s="15"/>
+      <c r="A357" s="11"/>
+      <c r="B357" s="13"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="13"/>
-      <c r="B358" s="15"/>
+      <c r="A358" s="11"/>
+      <c r="B358" s="13"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="13"/>
-      <c r="B359" s="15"/>
+      <c r="A359" s="11"/>
+      <c r="B359" s="13"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="13"/>
-      <c r="B360" s="15"/>
+      <c r="A360" s="11"/>
+      <c r="B360" s="13"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="13"/>
-      <c r="B361" s="15"/>
+      <c r="A361" s="11"/>
+      <c r="B361" s="13"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="13"/>
-      <c r="B362" s="15"/>
+      <c r="A362" s="11"/>
+      <c r="B362" s="13"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="13"/>
-      <c r="B363" s="15"/>
+      <c r="A363" s="11"/>
+      <c r="B363" s="13"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="13"/>
-      <c r="B364" s="15"/>
+      <c r="A364" s="11"/>
+      <c r="B364" s="13"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="13"/>
-      <c r="B365" s="15"/>
+      <c r="A365" s="11"/>
+      <c r="B365" s="13"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="13"/>
-      <c r="B366" s="15"/>
+      <c r="A366" s="11"/>
+      <c r="B366" s="13"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="13"/>
-      <c r="B367" s="15"/>
+      <c r="A367" s="11"/>
+      <c r="B367" s="13"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="13"/>
-      <c r="B368" s="15"/>
+      <c r="A368" s="11"/>
+      <c r="B368" s="13"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="13"/>
-      <c r="B369" s="15"/>
+      <c r="A369" s="11"/>
+      <c r="B369" s="13"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="13"/>
-      <c r="B370" s="15"/>
+      <c r="A370" s="11"/>
+      <c r="B370" s="13"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="13"/>
-      <c r="B371" s="15"/>
+      <c r="A371" s="11"/>
+      <c r="B371" s="13"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="13"/>
-      <c r="B372" s="15"/>
+      <c r="A372" s="11"/>
+      <c r="B372" s="13"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="13"/>
-      <c r="B373" s="15"/>
+      <c r="A373" s="11"/>
+      <c r="B373" s="13"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="13"/>
-      <c r="B374" s="15"/>
+      <c r="A374" s="11"/>
+      <c r="B374" s="13"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="13"/>
-      <c r="B375" s="15"/>
+      <c r="A375" s="11"/>
+      <c r="B375" s="13"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="13"/>
-      <c r="B376" s="15"/>
+      <c r="A376" s="11"/>
+      <c r="B376" s="13"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="13"/>
-      <c r="B377" s="15"/>
+      <c r="A377" s="11"/>
+      <c r="B377" s="13"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="13"/>
-      <c r="B378" s="15"/>
+      <c r="A378" s="11"/>
+      <c r="B378" s="13"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="13"/>
-      <c r="B379" s="15"/>
+      <c r="A379" s="11"/>
+      <c r="B379" s="13"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="13"/>
-      <c r="B380" s="15"/>
+      <c r="A380" s="11"/>
+      <c r="B380" s="13"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="13"/>
-      <c r="B381" s="15"/>
+      <c r="A381" s="11"/>
+      <c r="B381" s="13"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="13"/>
-      <c r="B382" s="15"/>
+      <c r="A382" s="11"/>
+      <c r="B382" s="13"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="13"/>
-      <c r="B383" s="15"/>
+      <c r="A383" s="11"/>
+      <c r="B383" s="13"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="13"/>
-      <c r="B384" s="15"/>
+      <c r="A384" s="11"/>
+      <c r="B384" s="13"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="13"/>
-      <c r="B385" s="15"/>
+      <c r="A385" s="11"/>
+      <c r="B385" s="13"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="13"/>
-      <c r="B386" s="15"/>
+      <c r="A386" s="11"/>
+      <c r="B386" s="13"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="13"/>
-      <c r="B387" s="15"/>
+      <c r="A387" s="11"/>
+      <c r="B387" s="13"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="13"/>
-      <c r="B388" s="15"/>
+      <c r="A388" s="11"/>
+      <c r="B388" s="13"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="13"/>
-      <c r="B389" s="15"/>
+      <c r="A389" s="11"/>
+      <c r="B389" s="13"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="13"/>
-      <c r="B390" s="15"/>
+      <c r="A390" s="11"/>
+      <c r="B390" s="13"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="13"/>
-      <c r="B391" s="15"/>
+      <c r="A391" s="11"/>
+      <c r="B391" s="13"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="13"/>
-      <c r="B392" s="15"/>
+      <c r="A392" s="11"/>
+      <c r="B392" s="13"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="13"/>
-      <c r="B393" s="15"/>
+      <c r="A393" s="11"/>
+      <c r="B393" s="13"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="13"/>
-      <c r="B394" s="15"/>
+      <c r="A394" s="11"/>
+      <c r="B394" s="13"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="13"/>
-      <c r="B395" s="15"/>
+      <c r="A395" s="11"/>
+      <c r="B395" s="13"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="13"/>
-      <c r="B396" s="15"/>
+      <c r="A396" s="11"/>
+      <c r="B396" s="13"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="13"/>
-      <c r="B397" s="15"/>
+      <c r="A397" s="11"/>
+      <c r="B397" s="13"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="13"/>
-      <c r="B398" s="15"/>
+      <c r="A398" s="11"/>
+      <c r="B398" s="13"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="13"/>
-      <c r="B399" s="15"/>
+      <c r="A399" s="11"/>
+      <c r="B399" s="13"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="13"/>
-      <c r="B400" s="15"/>
+      <c r="A400" s="11"/>
+      <c r="B400" s="13"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="13"/>
-      <c r="B401" s="15"/>
+      <c r="A401" s="11"/>
+      <c r="B401" s="13"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="13"/>
-      <c r="B402" s="15"/>
+      <c r="A402" s="11"/>
+      <c r="B402" s="13"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="13"/>
-      <c r="B403" s="15"/>
+      <c r="A403" s="11"/>
+      <c r="B403" s="13"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="13"/>
-      <c r="B404" s="15"/>
+      <c r="A404" s="11"/>
+      <c r="B404" s="13"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="13"/>
-      <c r="B405" s="15"/>
+      <c r="A405" s="11"/>
+      <c r="B405" s="13"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="13"/>
-      <c r="B406" s="15"/>
+      <c r="A406" s="11"/>
+      <c r="B406" s="13"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="13"/>
-      <c r="B407" s="15"/>
+      <c r="A407" s="11"/>
+      <c r="B407" s="13"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="13"/>
-      <c r="B408" s="15"/>
+      <c r="A408" s="11"/>
+      <c r="B408" s="13"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="13"/>
-      <c r="B409" s="15"/>
+      <c r="A409" s="11"/>
+      <c r="B409" s="13"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="13"/>
-      <c r="B410" s="15"/>
+      <c r="A410" s="11"/>
+      <c r="B410" s="13"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="13"/>
-      <c r="B411" s="15"/>
+      <c r="A411" s="11"/>
+      <c r="B411" s="13"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="13"/>
-      <c r="B412" s="15"/>
+      <c r="A412" s="11"/>
+      <c r="B412" s="13"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="13"/>
-      <c r="B413" s="15"/>
+      <c r="A413" s="11"/>
+      <c r="B413" s="13"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="13"/>
-      <c r="B414" s="15"/>
+      <c r="A414" s="11"/>
+      <c r="B414" s="13"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="13"/>
-      <c r="B415" s="15"/>
+      <c r="A415" s="11"/>
+      <c r="B415" s="13"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="13"/>
-      <c r="B416" s="15"/>
+      <c r="A416" s="11"/>
+      <c r="B416" s="13"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="13"/>
-      <c r="B417" s="15"/>
+      <c r="A417" s="11"/>
+      <c r="B417" s="13"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="13"/>
-      <c r="B418" s="15"/>
+      <c r="A418" s="11"/>
+      <c r="B418" s="13"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="13"/>
-      <c r="B419" s="15"/>
+      <c r="A419" s="11"/>
+      <c r="B419" s="13"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="13"/>
-      <c r="B420" s="15"/>
+      <c r="A420" s="11"/>
+      <c r="B420" s="13"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="13"/>
-      <c r="B421" s="15"/>
+      <c r="A421" s="11"/>
+      <c r="B421" s="13"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="13"/>
-      <c r="B422" s="15"/>
+      <c r="A422" s="11"/>
+      <c r="B422" s="13"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="13"/>
-      <c r="B423" s="15"/>
+      <c r="A423" s="11"/>
+      <c r="B423" s="13"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="13"/>
-      <c r="B424" s="15"/>
+      <c r="A424" s="11"/>
+      <c r="B424" s="13"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="13"/>
-      <c r="B425" s="15"/>
+      <c r="A425" s="11"/>
+      <c r="B425" s="13"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="13"/>
-      <c r="B426" s="15"/>
+      <c r="A426" s="11"/>
+      <c r="B426" s="13"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="13"/>
-      <c r="B427" s="15"/>
+      <c r="A427" s="11"/>
+      <c r="B427" s="13"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="13"/>
-      <c r="B428" s="15"/>
+      <c r="A428" s="11"/>
+      <c r="B428" s="13"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="13"/>
-      <c r="B429" s="15"/>
+      <c r="A429" s="11"/>
+      <c r="B429" s="13"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="13"/>
-      <c r="B430" s="15"/>
+      <c r="A430" s="11"/>
+      <c r="B430" s="13"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="13"/>
-      <c r="B431" s="15"/>
+      <c r="A431" s="11"/>
+      <c r="B431" s="13"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="13"/>
-      <c r="B432" s="15"/>
+      <c r="A432" s="11"/>
+      <c r="B432" s="13"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="13"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="11"/>
+      <c r="B433" s="13"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="13"/>
-      <c r="B434" s="15"/>
+      <c r="A434" s="11"/>
+      <c r="B434" s="13"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="13"/>
-      <c r="B435" s="15"/>
+      <c r="A435" s="11"/>
+      <c r="B435" s="13"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="13"/>
-      <c r="B436" s="15"/>
+      <c r="A436" s="11"/>
+      <c r="B436" s="13"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="13"/>
-      <c r="B437" s="15"/>
+      <c r="A437" s="11"/>
+      <c r="B437" s="13"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="13"/>
-      <c r="B438" s="15"/>
+      <c r="A438" s="11"/>
+      <c r="B438" s="13"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="13"/>
-      <c r="B439" s="15"/>
+      <c r="A439" s="11"/>
+      <c r="B439" s="13"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="13"/>
-      <c r="B440" s="15"/>
+      <c r="A440" s="11"/>
+      <c r="B440" s="13"/>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="13"/>
-      <c r="B441" s="15"/>
+      <c r="A441" s="11"/>
+      <c r="B441" s="13"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="13"/>
-      <c r="B442" s="15"/>
+      <c r="A442" s="11"/>
+      <c r="B442" s="13"/>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="13"/>
-      <c r="B443" s="15"/>
+      <c r="A443" s="11"/>
+      <c r="B443" s="13"/>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="13"/>
-      <c r="B444" s="15"/>
+      <c r="A444" s="11"/>
+      <c r="B444" s="13"/>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="13"/>
-      <c r="B445" s="15"/>
+      <c r="A445" s="11"/>
+      <c r="B445" s="13"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="13"/>
-      <c r="B446" s="15"/>
+      <c r="A446" s="11"/>
+      <c r="B446" s="13"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="13"/>
-      <c r="B447" s="15"/>
+      <c r="A447" s="11"/>
+      <c r="B447" s="13"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="13"/>
-      <c r="B448" s="15"/>
+      <c r="A448" s="11"/>
+      <c r="B448" s="13"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="13"/>
-      <c r="B449" s="15"/>
+      <c r="A449" s="11"/>
+      <c r="B449" s="13"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="13"/>
-      <c r="B450" s="15"/>
+      <c r="A450" s="11"/>
+      <c r="B450" s="13"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="13"/>
-      <c r="B451" s="15"/>
+      <c r="A451" s="11"/>
+      <c r="B451" s="13"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="13"/>
-      <c r="B452" s="15"/>
+      <c r="A452" s="11"/>
+      <c r="B452" s="13"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="13"/>
-      <c r="B453" s="15"/>
+      <c r="A453" s="11"/>
+      <c r="B453" s="13"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="13"/>
-      <c r="B454" s="15"/>
+      <c r="A454" s="11"/>
+      <c r="B454" s="13"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="13"/>
-      <c r="B455" s="15"/>
+      <c r="A455" s="11"/>
+      <c r="B455" s="13"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="13"/>
-      <c r="B456" s="15"/>
+      <c r="A456" s="11"/>
+      <c r="B456" s="13"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="13"/>
-      <c r="B457" s="15"/>
+      <c r="A457" s="11"/>
+      <c r="B457" s="13"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="13"/>
-      <c r="B458" s="15"/>
+      <c r="A458" s="11"/>
+      <c r="B458" s="13"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="13"/>
-      <c r="B459" s="15"/>
+      <c r="A459" s="11"/>
+      <c r="B459" s="13"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="13"/>
-      <c r="B460" s="15"/>
+      <c r="A460" s="11"/>
+      <c r="B460" s="13"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="13"/>
-      <c r="B461" s="15"/>
+      <c r="A461" s="11"/>
+      <c r="B461" s="13"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="13"/>
-      <c r="B462" s="15"/>
+      <c r="A462" s="11"/>
+      <c r="B462" s="13"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="13"/>
-      <c r="B463" s="15"/>
+      <c r="A463" s="11"/>
+      <c r="B463" s="13"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="13"/>
-      <c r="B464" s="15"/>
+      <c r="A464" s="11"/>
+      <c r="B464" s="13"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="13"/>
-      <c r="B465" s="15"/>
+      <c r="A465" s="11"/>
+      <c r="B465" s="13"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="13"/>
-      <c r="B466" s="15"/>
+      <c r="A466" s="11"/>
+      <c r="B466" s="13"/>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="13"/>
-      <c r="B467" s="15"/>
+      <c r="A467" s="11"/>
+      <c r="B467" s="13"/>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="13"/>
-      <c r="B468" s="15"/>
+      <c r="A468" s="11"/>
+      <c r="B468" s="13"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="13"/>
-      <c r="B469" s="15"/>
+      <c r="A469" s="11"/>
+      <c r="B469" s="13"/>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="13"/>
-      <c r="B470" s="15"/>
+      <c r="A470" s="11"/>
+      <c r="B470" s="13"/>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="13"/>
-      <c r="B471" s="15"/>
+      <c r="A471" s="11"/>
+      <c r="B471" s="13"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="13"/>
-      <c r="B472" s="15"/>
+      <c r="A472" s="11"/>
+      <c r="B472" s="13"/>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="13"/>
-      <c r="B473" s="15"/>
+      <c r="A473" s="11"/>
+      <c r="B473" s="13"/>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="13"/>
-      <c r="B474" s="15"/>
+      <c r="A474" s="11"/>
+      <c r="B474" s="13"/>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="13"/>
-      <c r="B475" s="15"/>
+      <c r="A475" s="11"/>
+      <c r="B475" s="13"/>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="13"/>
-      <c r="B476" s="15"/>
+      <c r="A476" s="11"/>
+      <c r="B476" s="13"/>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="13"/>
-      <c r="B477" s="15"/>
+      <c r="A477" s="11"/>
+      <c r="B477" s="13"/>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="13"/>
-      <c r="B478" s="15"/>
+      <c r="A478" s="11"/>
+      <c r="B478" s="13"/>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="13"/>
-      <c r="B479" s="15"/>
+      <c r="A479" s="11"/>
+      <c r="B479" s="13"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="13"/>
-      <c r="B480" s="15"/>
+      <c r="A480" s="11"/>
+      <c r="B480" s="13"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="13"/>
-      <c r="B481" s="15"/>
+      <c r="A481" s="11"/>
+      <c r="B481" s="13"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="13"/>
-      <c r="B482" s="15"/>
+      <c r="A482" s="11"/>
+      <c r="B482" s="13"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="13"/>
-      <c r="B483" s="15"/>
+      <c r="A483" s="11"/>
+      <c r="B483" s="13"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="13"/>
-      <c r="B484" s="15"/>
+      <c r="A484" s="11"/>
+      <c r="B484" s="13"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="13"/>
-      <c r="B485" s="15"/>
+      <c r="A485" s="11"/>
+      <c r="B485" s="13"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="13"/>
-      <c r="B486" s="15"/>
+      <c r="A486" s="11"/>
+      <c r="B486" s="13"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="13"/>
-      <c r="B487" s="15"/>
+      <c r="A487" s="11"/>
+      <c r="B487" s="13"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="13"/>
-      <c r="B488" s="15"/>
+      <c r="A488" s="11"/>
+      <c r="B488" s="13"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="13"/>
-      <c r="B489" s="15"/>
+      <c r="A489" s="11"/>
+      <c r="B489" s="13"/>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="13"/>
-      <c r="B490" s="15"/>
+      <c r="A490" s="11"/>
+      <c r="B490" s="13"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="13"/>
-      <c r="B491" s="15"/>
+      <c r="A491" s="11"/>
+      <c r="B491" s="13"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="13"/>
-      <c r="B492" s="15"/>
+      <c r="A492" s="11"/>
+      <c r="B492" s="13"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="13"/>
-      <c r="B493" s="15"/>
+      <c r="A493" s="11"/>
+      <c r="B493" s="13"/>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="13"/>
-      <c r="B494" s="15"/>
+      <c r="A494" s="11"/>
+      <c r="B494" s="13"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="13"/>
-      <c r="B495" s="15"/>
+      <c r="A495" s="11"/>
+      <c r="B495" s="13"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="13"/>
-      <c r="B496" s="15"/>
+      <c r="A496" s="11"/>
+      <c r="B496" s="13"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="13"/>
-      <c r="B497" s="15"/>
+      <c r="A497" s="11"/>
+      <c r="B497" s="13"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="13"/>
-      <c r="B498" s="15"/>
+      <c r="A498" s="11"/>
+      <c r="B498" s="13"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="13"/>
-      <c r="B499" s="15"/>
+      <c r="A499" s="11"/>
+      <c r="B499" s="13"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="13"/>
-      <c r="B500" s="15"/>
+      <c r="A500" s="11"/>
+      <c r="B500" s="13"/>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="13"/>
-      <c r="B501" s="15"/>
+      <c r="A501" s="11"/>
+      <c r="B501" s="13"/>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="13"/>
-      <c r="B502" s="15"/>
+      <c r="A502" s="11"/>
+      <c r="B502" s="13"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="13"/>
-      <c r="B503" s="15"/>
+      <c r="A503" s="11"/>
+      <c r="B503" s="13"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="13"/>
-      <c r="B504" s="15"/>
+      <c r="A504" s="11"/>
+      <c r="B504" s="13"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="13"/>
-      <c r="B505" s="15"/>
+      <c r="A505" s="11"/>
+      <c r="B505" s="13"/>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="13"/>
-      <c r="B506" s="15"/>
+      <c r="A506" s="11"/>
+      <c r="B506" s="13"/>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="13"/>
-      <c r="B507" s="15"/>
+      <c r="A507" s="11"/>
+      <c r="B507" s="13"/>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="13"/>
-      <c r="B508" s="15"/>
+      <c r="A508" s="11"/>
+      <c r="B508" s="13"/>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="13"/>
-      <c r="B509" s="15"/>
+      <c r="A509" s="11"/>
+      <c r="B509" s="13"/>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="13"/>
-      <c r="B510" s="15"/>
+      <c r="A510" s="11"/>
+      <c r="B510" s="13"/>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="13"/>
-      <c r="B511" s="15"/>
+      <c r="A511" s="11"/>
+      <c r="B511" s="13"/>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="13"/>
-      <c r="B512" s="15"/>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="13"/>
-      <c r="B513" s="15"/>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="13"/>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="13"/>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="13"/>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="13"/>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="13"/>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="13"/>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="13"/>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="13"/>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="13"/>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="13"/>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="13"/>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="13"/>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="13"/>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="13"/>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="13"/>
+      <c r="A512" s="11"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="11"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="11"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="11"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="11"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="11"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="11"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="11"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="11"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="11"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="11"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="11"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="11"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="11"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="11"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="11"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="11"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="13"/>
+      <c r="A529" s="11"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="13"/>
+      <c r="A530" s="11"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="13"/>
+      <c r="A531" s="11"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="13"/>
+      <c r="A532" s="11"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="13"/>
+      <c r="A533" s="11"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="13"/>
+      <c r="A534" s="11"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="13"/>
+      <c r="A535" s="11"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="13"/>
+      <c r="A536" s="11"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="13"/>
+      <c r="A537" s="11"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="13"/>
+      <c r="A538" s="11"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="13"/>
+      <c r="A539" s="11"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="13"/>
+      <c r="A540" s="11"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="13"/>
+      <c r="A541" s="11"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="13"/>
+      <c r="A542" s="11"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="13"/>
+      <c r="A543" s="11"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="13"/>
+      <c r="A544" s="11"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="13"/>
+      <c r="A545" s="11"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="13"/>
+      <c r="A546" s="11"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="13"/>
+      <c r="A547" s="11"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="13"/>
+      <c r="A548" s="11"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="13"/>
+      <c r="A549" s="11"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="13"/>
+      <c r="A550" s="11"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="13"/>
+      <c r="A551" s="11"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="13"/>
+      <c r="A552" s="11"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="13"/>
+      <c r="A553" s="11"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="13"/>
+      <c r="A554" s="11"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="13"/>
+      <c r="A555" s="11"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="13"/>
+      <c r="A556" s="11"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="13"/>
+      <c r="A557" s="11"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="13"/>
+      <c r="A558" s="11"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="13"/>
+      <c r="A559" s="11"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="13"/>
+      <c r="A560" s="11"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="13"/>
+      <c r="A561" s="11"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="13"/>
+      <c r="A562" s="11"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="13"/>
+      <c r="A563" s="11"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="13"/>
+      <c r="A564" s="11"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="13"/>
+      <c r="A565" s="11"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="13"/>
+      <c r="A566" s="11"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="13"/>
+      <c r="A567" s="11"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="13"/>
+      <c r="A568" s="11"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="13"/>
+      <c r="A569" s="11"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="13"/>
+      <c r="A570" s="11"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="13"/>
+      <c r="A571" s="11"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="13"/>
+      <c r="A572" s="11"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="13"/>
+      <c r="A573" s="11"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="13"/>
+      <c r="A574" s="11"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="13"/>
+      <c r="A575" s="11"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="13"/>
+      <c r="A576" s="11"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="13"/>
+      <c r="A577" s="11"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="13"/>
+      <c r="A578" s="11"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="13"/>
+      <c r="A579" s="11"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="13"/>
+      <c r="A580" s="11"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="13"/>
+      <c r="A581" s="11"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="13"/>
+      <c r="A582" s="11"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="13"/>
+      <c r="A583" s="11"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="13"/>
+      <c r="A584" s="11"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="13"/>
+      <c r="A585" s="11"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="13"/>
+      <c r="A586" s="11"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="13"/>
+      <c r="A587" s="11"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="13"/>
+      <c r="A588" s="11"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="13"/>
+      <c r="A589" s="11"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="13"/>
+      <c r="A590" s="11"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="13"/>
+      <c r="A591" s="11"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="13"/>
+      <c r="A592" s="11"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="13"/>
+      <c r="A593" s="11"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="13"/>
+      <c r="A594" s="11"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="13"/>
+      <c r="A595" s="11"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="13"/>
+      <c r="A596" s="11"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="13"/>
+      <c r="A597" s="11"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="13"/>
+      <c r="A598" s="11"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="13"/>
+      <c r="A599" s="11"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="13"/>
+      <c r="A600" s="11"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="13"/>
+      <c r="A601" s="11"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="13"/>
+      <c r="A602" s="11"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="13"/>
+      <c r="A603" s="11"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="13"/>
+      <c r="A604" s="11"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="13"/>
+      <c r="A605" s="11"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="13"/>
+      <c r="A606" s="11"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="13"/>
+      <c r="A607" s="11"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="13"/>
+      <c r="A608" s="11"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="13"/>
+      <c r="A609" s="11"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="13"/>
+      <c r="A610" s="11"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="13"/>
+      <c r="A611" s="11"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="13"/>
+      <c r="A612" s="11"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="13"/>
+      <c r="A613" s="11"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="13"/>
+      <c r="A614" s="11"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="13"/>
+      <c r="A615" s="11"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="13"/>
+      <c r="A616" s="11"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="13"/>
+      <c r="A617" s="11"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="13"/>
+      <c r="A618" s="11"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="13"/>
+      <c r="A619" s="11"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="13"/>
+      <c r="A620" s="11"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="13"/>
+      <c r="A621" s="11"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="13"/>
+      <c r="A622" s="11"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="13"/>
+      <c r="A623" s="11"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="13"/>
+      <c r="A624" s="11"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="13"/>
+      <c r="A625" s="11"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="13"/>
+      <c r="A626" s="11"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="13"/>
+      <c r="A627" s="11"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="13"/>
+      <c r="A628" s="11"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="13"/>
+      <c r="A629" s="11"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="13"/>
+      <c r="A630" s="11"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="13"/>
+      <c r="A631" s="11"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="13"/>
+      <c r="A632" s="11"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="13"/>
+      <c r="A633" s="11"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="13"/>
+      <c r="A634" s="11"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="13"/>
+      <c r="A635" s="11"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="13"/>
+      <c r="A636" s="11"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="13"/>
+      <c r="A637" s="11"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="13"/>
+      <c r="A638" s="11"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="13"/>
+      <c r="A639" s="11"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="13"/>
+      <c r="A640" s="11"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="13"/>
+      <c r="A641" s="11"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="13"/>
+      <c r="A642" s="11"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="13"/>
+      <c r="A643" s="11"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="13"/>
+      <c r="A644" s="11"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="13"/>
+      <c r="A645" s="11"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="13"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="13"/>
+      <c r="A647" s="11"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="13"/>
+      <c r="A648" s="11"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="13"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="13"/>
+      <c r="A650" s="11"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="13"/>
+      <c r="A651" s="11"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="13"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="13"/>
+      <c r="A653" s="11"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="13"/>
+      <c r="A654" s="11"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="13"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="13"/>
+      <c r="A656" s="11"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="13"/>
+      <c r="A657" s="11"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="13"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="13"/>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="13"/>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="13"/>
+      <c r="A659" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576 L3">
+  <conditionalFormatting sqref="L3 H2:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"Incorrect"</formula>
     </cfRule>
@@ -4256,7 +4860,7 @@
       <formula>"Correct"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H1002">
+  <conditionalFormatting sqref="H3:H1000">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Can't Test">
       <formula>NOT(ISERROR(SEARCH("Can't Test",H3)))</formula>
     </cfRule>
@@ -4265,7 +4869,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Correct,Incorrect,Suggestion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B55 B70 B82:B84" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B68 B80:B82" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Observation, Header, Enfd of File"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0100-000002000000}">
